--- a/Documentation/Journaux/Joao/JournalDeTravail.xlsx
+++ b/Documentation/Journaux/Joao/JournalDeTravail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\3emeAnnee\2emeTrimestre\ICT\ProjC#\Documentation\Journaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pb21ajx\Documents\Ultimate-tic-tac-toe\Documentation\Journaux\Joao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D7DCC5-C446-42BA-A4F2-3952641080B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229B2999-BF89-498D-8E60-643BAC2EFCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>Romain et moi avons créé un projet GitHub et nous avons mis tous nous fichiers dedans</t>
+  </si>
+  <si>
+    <t>https://typographyforlawyers.com/monospaced-fonts.html#:~:text=The%20system%20fonts%20Courier%2C%20Menlo,the%20font%20is%20called%20proportional%20.</t>
+  </si>
+  <si>
+    <t>Début du jeu</t>
+  </si>
+  <si>
+    <t>Romain et moi avons fait le menu de début de jeu avec le titre et le bouton, le bouton ne marche pas encore</t>
+  </si>
+  <si>
+    <t>Romain et moi avons fait en sorte qu'en appuyant sur le bouton "Start" du début du jeu, on passe au menu du jeu</t>
   </si>
 </sst>
 </file>
@@ -560,7 +572,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H22" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau4" displayName="Tableau4" ref="A1:H24" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Heure début" dataDxfId="11"/>
@@ -840,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,22 +1404,74 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>45244</v>
       </c>
       <c r="B22" s="8">
         <v>0.59097222222222223</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="8">
+        <v>0.62708333333333333</v>
+      </c>
       <c r="D22" s="4">
         <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
-        <v>-0.59097222222222223</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+        <v>3.6111111111111094E-2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45244</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="D23" s="4">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>3.4027777777777879E-2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45244</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4">
+        <f>Tableau4[[#This Row],[Heure fin]]-Tableau4[[#This Row],[Heure début]]</f>
+        <v>-0.67708333333333337</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
@@ -1423,7 +1487,7 @@
       <formula>NOT(ISERROR(SEARCH("Date",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D176:D1048576 D1:D149">
+  <conditionalFormatting sqref="D178:D1048576 D1:D151">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThanOrEqual">
       <formula>0.0833</formula>
     </cfRule>
@@ -1435,11 +1499,12 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" xr:uid="{4BFF5F8C-C600-4E72-8C2A-44A618D4477F}"/>
+    <hyperlink ref="H22" r:id="rId2" location=":~:text=The%20system%20fonts%20Courier%2C%20Menlo,the%20font%20is%20called%20proportional%20." xr:uid="{DF38D437-4D78-4CA7-BB10-19E5565B6B87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>